--- a/db/AiCity-75-Health.xlsx
+++ b/db/AiCity-75-Health.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC9417A-6503-3542-8227-391D0A27919F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A477C80-88CC-FD4F-BAE1-767D1B535316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="11440" windowWidth="40420" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="4500" windowWidth="40420" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>title</t>
   </si>
@@ -372,8 +372,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>禾欣牙醫診所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E7%A6%BE%E6%AC%A3%E7%89%99%E9%86%AB-207500059279374/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333 桃園市桃園區桃園市龜山區復興一路108巷1號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-7895</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30 - 21:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿凡牙醫診所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333桃園市龜山區文化三路315號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-327-7722</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:30–12:00, 14:00–20:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.revivingdc.com.tw/</t>
+  </si>
+  <si>
     <r>
-      <t>AiCity-921-</t>
+      <t>fig/AiCity-921-</t>
     </r>
     <r>
       <rPr>
@@ -394,28 +436,56 @@
       </rPr>
       <t>.png</t>
     </r>
-  </si>
-  <si>
-    <t>禾欣牙醫診所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/%E7%A6%BE%E6%AC%A3%E7%89%99%E9%86%AB-207500059279374/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">333 桃園市桃園區桃園市龜山區復興一路108巷1號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-327-7895</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:30 - 21:30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AiCity-921-禾欣牙醫診所.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-921-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>禾欣牙醫診所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-921-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>睿凡牙醫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.jpg</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,6 +517,13 @@
       <color rgb="FF000000"/>
       <name val="Wawati TC"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -776,13 +853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1229,7 @@
         <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>101</v>
@@ -1166,24 +1243,50 @@
         <v>95</v>
       </c>
       <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B16" t="s">
         <v>111</v>
       </c>
-      <c r="G15" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
